--- a/data/Case 2024.2 - Programação.xlsx
+++ b/data/Case 2024.2 - Programação.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C866E965-1F2E-4D54-973A-604E2B0CC811}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -62,7 +63,7 @@
     <t>Hora de postagem da nota</t>
   </si>
   <si>
-    <t>Nome completo:</t>
+    <t>NomeCompleto</t>
   </si>
   <si>
     <t>Pontos – Nome completo:</t>
@@ -71,13 +72,13 @@
     <t>Comentários – Nome completo:</t>
   </si>
   <si>
-    <t>Número da carteirinha (Cxxxxxx):</t>
-  </si>
-  <si>
-    <t>Pontos – Número da carteirinha (Cxxxxxx):</t>
-  </si>
-  <si>
-    <t>Comentários – Número da carteirinha (Cxxxxxx):</t>
+    <t>Carteira</t>
+  </si>
+  <si>
+    <t>Pontos – Número da carteirinha:</t>
+  </si>
+  <si>
+    <t>Comentários – Número da carteirinha:</t>
   </si>
   <si>
     <t>Qual das seguintes descrições melhor descreve seu nível de conhecimento sobre programação?</t>
@@ -289,12 +290,15 @@
   <si>
     <t>[False, False]; [True, False, True, True]; [True, False]</t>
   </si>
+  <si>
+    <t>Nomes das colunas:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +306,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Nunito Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Nunito Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF264FE8"/>
+        <bgColor rgb="FF264FE8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,13 +342,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7C94F1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7C94F1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7C94F1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7C94F1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +655,7 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nome completo:" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NomeCompleto" dataDxfId="44">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r7786de53f0d34a79ace9d091cd03822b"/>
@@ -575,21 +676,21 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Número da carteirinha (Cxxxxxx):" dataDxfId="41">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Carteira" dataDxfId="41">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rac7c5418b6a546589c368c86b67af4a4"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontos – Número da carteirinha (Cxxxxxx):" dataDxfId="40">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Pontos – Número da carteirinha:" dataDxfId="40">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rac7c5418b6a546589c368c86b67af4a4-Score"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Comentários – Número da carteirinha (Cxxxxxx):" dataDxfId="39">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Comentários – Número da carteirinha:" dataDxfId="39">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rac7c5418b6a546589c368c86b67af4a4-Comment"/>
@@ -873,7 +974,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="_UIRAKzC002IjC7F3CaQQfPO31JPBRZLnBrBdwvxRN5UMktMOTlaMDlRU000QVBXNk02NlFTRFlNMSQlQCN0PWcu" isFormConnected="1" maxResponseId="1" latestEventMarker="0">
+      <xlmsforms:msForm id="_UIRAKzC002IjC7F3CaQQfPO31JPBRZLnBrBdwvxRN5UMktMOTlaMDlRU000QVBXNk02NlFTRFlNMSQlQCN0PWcu" isFormConnected="1" maxResponseId="1" latestEventMarker="1">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -1232,14 +1333,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="53" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" ht="18.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1367,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1273,7 +1376,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1520,7 +1623,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AE5F21-5DB1-42AE-8504-E59E2228D2D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2807de7a-b882-44f5-9f07-3ac4d241cb3d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="18aaadd8-4fbe-433c-97a2-e75c8b57c8e6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001679527E1B0EA94E8138AA9ED30F4073" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6866bf21d6896a2542552efefd485b9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2807de7a-b882-44f5-9f07-3ac4d241cb3d" xmlns:ns3="18aaadd8-4fbe-433c-97a2-e75c8b57c8e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6aa3b7f1cd58eea80c09626b94b3ae7" ns2:_="" ns3:_="">
     <xsd:import namespace="2807de7a-b882-44f5-9f07-3ac4d241cb3d"/>
@@ -1749,17 +1896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2807de7a-b882-44f5-9f07-3ac4d241cb3d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="18aaadd8-4fbe-433c-97a2-e75c8b57c8e6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1770,11 +1906,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413ACD0E-CCA6-4F38-B9B3-847DDC85C574}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F56957-16E7-4334-87C2-E83E66C116FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19F56957-16E7-4334-87C2-E83E66C116FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413ACD0E-CCA6-4F38-B9B3-847DDC85C574}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
